--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/31/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/31/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9089089089089089</v>
+        <v>0.4281428142814281</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1933.933933933934</v>
+        <v>1999.239923992399</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004704704704704705</v>
+        <v>0.03384338433843385</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5635635635635635</v>
+        <v>0.76997699769977</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296.2962962962963</v>
+        <v>292.8692869286929</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.3763763763764</v>
+        <v>641.4041404140414</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.07907907907908</v>
+        <v>96.41404140414041</v>
       </c>
     </row>
   </sheetData>
